--- a/kyi_3.symptoms_grouping/ML-Group6-Symptoms-Grouping.xlsx
+++ b/kyi_3.symptoms_grouping/ML-Group6-Symptoms-Grouping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyithinnu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIT\Sem 1\Machine Learning\Medical_prediction\Medical_prediction\kyi_3.symptoms_grouping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F16C75A-63A8-1348-AD9F-59BBE4E26B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43FCA2B-3650-4EE6-BD45-67183D8AA1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{4388FC56-530E-754B-85AB-D1EAF00E429E}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{4388FC56-530E-754B-85AB-D1EAF00E429E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -569,7 +558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -970,23 +959,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390EB1BB-8E2D-CB4E-A13A-B828DD8A7C26}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="B1:B1048576 F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScale="116" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.796875" style="1"/>
     <col min="2" max="2" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="20.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -994,7 +983,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1014,7 +1003,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1034,7 +1023,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1051,7 +1040,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1065,7 +1054,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1085,7 +1074,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1102,7 +1091,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1119,7 +1108,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1139,7 +1128,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1159,7 +1148,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1179,7 +1168,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1193,7 +1182,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1210,7 +1199,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1224,7 +1213,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1241,7 +1230,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1252,7 +1241,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1266,7 +1255,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1283,7 +1272,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1303,7 +1292,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1320,7 +1309,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1337,7 +1326,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1354,7 +1343,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1371,7 +1360,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1388,7 +1377,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1405,7 +1394,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1425,7 +1414,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1442,7 +1431,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1459,7 +1448,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1479,7 +1468,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1499,7 +1488,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1516,7 +1505,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1530,7 +1519,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1544,7 +1533,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1564,7 +1553,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1581,7 +1570,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1601,7 +1590,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1621,7 +1610,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1641,7 +1630,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1661,7 +1650,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1672,7 +1661,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1692,7 +1681,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1703,7 +1692,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1714,7 +1703,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1734,7 +1723,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1748,7 +1737,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1768,7 +1757,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1779,7 +1768,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1793,7 +1782,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1807,7 +1796,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1824,7 +1813,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1841,7 +1830,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1852,7 +1841,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1863,7 +1852,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1880,7 +1869,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1891,7 +1880,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1908,7 +1897,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1925,7 +1914,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1939,7 +1928,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1953,7 +1942,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1970,7 +1959,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1981,7 +1970,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1995,7 +1984,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2012,7 +2001,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2026,7 +2015,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2040,7 +2029,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2054,7 +2043,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2065,7 +2054,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2082,7 +2071,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2093,7 +2082,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2104,7 +2093,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2115,7 +2104,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2126,7 +2115,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2140,7 +2129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2157,7 +2146,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2171,7 +2160,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2185,7 +2174,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2199,7 +2188,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2210,7 +2199,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2221,7 +2210,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2232,7 +2221,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2246,7 +2235,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2257,7 +2246,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2271,7 +2260,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2288,7 +2277,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2303,7 +2292,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2317,7 +2306,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2331,7 +2320,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2345,7 +2334,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2356,7 +2345,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" s="5" customFormat="1" ht="15.6">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -2367,7 +2356,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2381,7 +2370,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2395,7 +2384,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2406,7 +2395,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2417,7 +2406,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2431,7 +2420,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2448,7 +2437,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2462,7 +2451,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2476,7 +2465,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2487,7 +2476,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2501,7 +2490,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2512,7 +2501,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2527,7 +2516,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2544,7 +2533,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2567,19 +2556,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677DECCA-8FC9-A145-BFF1-52D254DFD882}">
   <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2596,7 +2585,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2613,7 +2602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +2619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2647,7 +2636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2664,7 +2653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2681,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2698,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2715,7 +2704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2732,7 +2721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2749,7 +2738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2766,7 +2755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2783,7 +2772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -2800,7 +2789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2817,7 +2806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2834,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2851,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -2868,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2885,7 +2874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -2902,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -2919,7 +2908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -2936,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2953,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -2970,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -2981,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -2992,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -3003,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -3014,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -3025,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -3036,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -3047,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -3058,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -3069,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -3080,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -3091,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3102,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -3113,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -3124,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -3135,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -3146,7 +3135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -3157,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -3168,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -3179,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -3190,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -3201,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -3212,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -3223,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -3234,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -3245,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -3256,7 +3245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -3267,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -3278,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
@@ -3289,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -3300,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -3311,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -3322,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
@@ -3333,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -3344,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -3355,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -3366,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -3377,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
@@ -3388,7 +3377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
@@ -3399,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
@@ -3410,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
@@ -3421,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
@@ -3432,7 +3421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
@@ -3443,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
@@ -3454,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
@@ -3465,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
@@ -3476,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
@@ -3487,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
@@ -3498,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
@@ -3509,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
@@ -3520,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
@@ -3531,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
@@ -3542,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
@@ -3553,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
@@ -3564,7 +3553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
@@ -3575,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
@@ -3586,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
@@ -3597,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
@@ -3608,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
@@ -3619,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
@@ -3630,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
@@ -3641,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
@@ -3652,7 +3641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
@@ -3663,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
@@ -3674,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
@@ -3685,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
@@ -3696,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
@@ -3707,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
@@ -3718,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
@@ -3729,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
@@ -3740,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
@@ -3751,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
@@ -3762,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
@@ -3773,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -3784,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
@@ -3795,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
@@ -3806,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
@@ -3817,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
@@ -3828,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
@@ -3839,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
@@ -3850,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
@@ -3862,7 +3851,7 @@
       </c>
     </row>
   </sheetData>
-  <dataConsolidate leftLabels="1" topLabels="1">
+  <dataConsolidate topLabels="1">
     <dataRefs count="2">
       <dataRef ref="A1:B104" sheet="symptoms group"/>
       <dataRef ref="B1:C104" sheet="symptoms group"/>
@@ -3880,13 +3869,13 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -3897,7 +3886,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3908,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3919,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3930,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3941,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3952,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3963,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3974,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3985,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3996,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4007,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -4018,7 +4007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -4029,7 +4018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -4040,7 +4029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -4051,7 +4040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>6</v>
       </c>
@@ -4062,7 +4051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>7</v>
       </c>
@@ -4073,7 +4062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>7</v>
       </c>
@@ -4084,7 +4073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -4095,7 +4084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>8</v>
       </c>
@@ -4106,7 +4095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>10</v>
       </c>
@@ -4117,7 +4106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -4128,7 +4117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>13</v>
       </c>
@@ -4139,14 +4128,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24">
         <f>SUM(A2:A23)</f>
         <v>103</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="B25" s="4"/>
     </row>
   </sheetData>
